--- a/KOMPEGE/block 22/dz 2/22_17533.xlsx
+++ b/KOMPEGE/block 22/dz 2/22_17533.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axelo\OneDrive\Рабочий стол\111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 22\dz 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BE624F-095A-418B-915E-5A0FEBB9C6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031E8055-BF22-4D09-B547-FC07D1F597CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8445" yWindow="1980" windowWidth="33825" windowHeight="18780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,1509 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4646</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167269</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C52D59-6EB0-4B89-BC6F-277CB8E3B762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2722756" y="162622"/>
+          <a:ext cx="3001537" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>101</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4646</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181207</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A351F37-97FB-4E83-8FD9-721F38CA19A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2722756" y="353122"/>
+          <a:ext cx="613317" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>102</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217449</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CEADF6-E383-462E-B87E-93762769DC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5774473" y="157046"/>
+          <a:ext cx="177491" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>ё</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2787</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162622</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BAA7BC3-0E82-4E17-9755-45AF356AE4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3376031" y="365202"/>
+          <a:ext cx="2343615" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>104</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>185854</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BACEB78-751B-4EC5-B321-D499DB03ADE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6004931" y="164481"/>
+          <a:ext cx="2795240" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>105</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167268</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5E2434-3824-45E0-BA8D-3BC5101C91A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5999355" y="354051"/>
+          <a:ext cx="1035206" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>106</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>218376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171914</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3233C3DB-09CD-4BFA-95BD-5F176D45CC85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7085669" y="357767"/>
+          <a:ext cx="1482184" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>107</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>216919</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>185324</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F7C36B-C14C-41FC-8D1B-DC0D83463C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8811190" y="174966"/>
+          <a:ext cx="186120" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>13673</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>194880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B60375-05B9-4C21-8ABC-008FC6D9B74E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9043373" y="183993"/>
+          <a:ext cx="398921" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>109</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203573</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38547</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFCA93E-A692-48FD-9C1E-7B9289D61E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000435" y="583771"/>
+          <a:ext cx="1701427" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>110</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>189504</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>148363</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E99A57-7C14-4589-9D08-57A3CD669248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5937349" y="548075"/>
+          <a:ext cx="2126617" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>111</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195147</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150287</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28197</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4184DA4D-20ED-4098-AB99-4983C43F72ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5942992" y="763921"/>
+          <a:ext cx="1689347" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>112</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>187647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>143717</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Прямоугольник 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F8FDE7-229C-49A6-B3E9-6E3E56A5FC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7669699" y="756422"/>
+          <a:ext cx="2990932" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>113</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>167269</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217449</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Прямая со стрелкой 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11801064-7383-4631-A91A-A8A27528E105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5724293" y="252296"/>
+          <a:ext cx="50180" cy="5576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181207</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Прямая со стрелкой 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E23953-24D2-4CB3-9A04-F8D959D47BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3336073" y="252296"/>
+          <a:ext cx="2438400" cy="196076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Прямая со стрелкой 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF86FE83-C443-435A-A8BD-78A15676E3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951964" y="252296"/>
+          <a:ext cx="52967" cy="7435"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176562</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>89674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96179</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Прямая со стрелкой 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5558E020-EAEE-4348-8D2A-FC4A11676A00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951964" y="252296"/>
+          <a:ext cx="47391" cy="197005"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181207</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2787</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая со стрелкой 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2F937A-A9B4-4A26-9DFC-2FDF9B42A007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3336073" y="448372"/>
+          <a:ext cx="39958" cy="12080"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>167268</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>218376</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Прямая со стрелкой 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EC1A625-520C-4A1E-B3A1-7E81098AAD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7034561" y="449301"/>
+          <a:ext cx="51108" cy="3716"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>185854</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>216919</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Прямая со стрелкой 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54419252-3730-4639-8463-F5D89E456F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8780125" y="260395"/>
+          <a:ext cx="31065" cy="9821"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171914</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>216919</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Прямая со стрелкой 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DF6825-F941-43DC-81B9-AE86FC52E76D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8548471" y="270216"/>
+          <a:ext cx="262719" cy="183465"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>185324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>13673</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Прямая со стрелкой 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE19D934-5DF0-4A3C-9691-E2C3AEAF044C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8997310" y="270216"/>
+          <a:ext cx="46063" cy="9027"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>195147</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Прямая со стрелкой 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168191A0-A57E-4B87-B115-7B1E9309DC93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5701862" y="679021"/>
+          <a:ext cx="241130" cy="180150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170793</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>98101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>189504</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133797</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Прямая со стрелкой 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D649340-BE24-4849-B05C-06C67C6111A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5701862" y="643325"/>
+          <a:ext cx="235487" cy="35696"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150287</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>187647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Прямая со стрелкой 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281AF1EC-B9E6-49B3-98AB-BD9F39657631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7632339" y="851672"/>
+          <a:ext cx="37360" cy="7499"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,20 +1888,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:BU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="4" max="73" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -408,9 +1911,218 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>33</v>
+      </c>
+      <c r="AK1">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM1">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO1">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>39</v>
+      </c>
+      <c r="AQ1">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>41</v>
+      </c>
+      <c r="AS1">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>43</v>
+      </c>
+      <c r="AU1">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>45</v>
+      </c>
+      <c r="AW1">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>47</v>
+      </c>
+      <c r="AY1">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>49</v>
+      </c>
+      <c r="BA1">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>51</v>
+      </c>
+      <c r="BC1">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>53</v>
+      </c>
+      <c r="BE1">
+        <v>54</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>55</v>
+      </c>
+      <c r="BG1">
+        <v>56</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>57</v>
+      </c>
+      <c r="BI1">
+        <v>58</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>59</v>
+      </c>
+      <c r="BK1">
+        <v>60</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>61</v>
+      </c>
+      <c r="BM1">
+        <v>62</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>63</v>
+      </c>
+      <c r="BO1">
+        <v>64</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>65</v>
+      </c>
+      <c r="BQ1">
+        <v>66</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>67</v>
+      </c>
+      <c r="BS1">
+        <v>68</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>69</v>
+      </c>
+      <c r="BU1">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -421,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -432,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -443,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -454,7 +2166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>105</v>
       </c>
@@ -464,8 +2176,38 @@
       <c r="C6" s="1">
         <v>103</v>
       </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>6</v>
+      </c>
+      <c r="Y6">
+        <v>7</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>9</v>
+      </c>
+      <c r="AB6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>106</v>
       </c>
@@ -476,7 +2218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>107</v>
       </c>
@@ -487,7 +2229,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>108</v>
       </c>
@@ -498,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>109</v>
       </c>
@@ -509,7 +2251,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>110</v>
       </c>
@@ -520,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>111</v>
       </c>
@@ -531,7 +2273,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>112</v>
       </c>
@@ -542,7 +2284,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>113</v>
       </c>
@@ -552,8 +2294,11 @@
       <c r="C14" s="1">
         <v>112</v>
       </c>
+      <c r="AG14">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -561,5 +2306,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>